--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>472697.66361032</v>
+        <v>418763.1352724277</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12423667.37739358</v>
+        <v>12535336.02914634</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8072540.561536799</v>
+        <v>7622616.185043048</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8961115.480643736</v>
+        <v>9156613.068475146</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>127.429877995854</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>144.6751566710423</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="Y2" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.429877995854</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>144.6751566710423</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W3" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>15.4022924851447</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>115.9422043334529</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>127.8026899798254</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.36014035361794</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>165.1725371760943</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25.03401767450507</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>166.7824266983284</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>128.238775807139</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>6.396723986041543</v>
       </c>
       <c r="S5" t="n">
-        <v>160.4115946525719</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>166.7824266983284</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>117.6060761033808</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.29588533250677</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>95.4268069934847</v>
       </c>
       <c r="T6" t="n">
-        <v>166.7824266983284</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>166.7824266983284</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>166.7824266983284</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7824266983284</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>146.9019614358876</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>138.395696696718</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W7" t="n">
-        <v>166.7824266983284</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>166.7824266983284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.3652991436814</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>153.807238032413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714241</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>176.016653834322</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="X9" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="Y9" t="n">
-        <v>64.33077982535472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>26.14297502545487</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845829</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>29.00708539155821</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>29.71145624902279</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>161.972675886686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3343964518635</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>92.83156789269626</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705012</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>134.3646350838588</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
-        <v>192.0665623188214</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8092030868072</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>163.6898441249717</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>194.6624603617375</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.3387326418235</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>305.012616457272</v>
+        <v>162.2825792184566</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3343964518635</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>92.83156789269626</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705013</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>134.3646350838588</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>192.0665623188214</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8092030868072</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551288</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>210.6180377869396</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>144.8586974472232</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>247.9428017852334</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>168.4446766148534</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>133.2519868530429</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>80.21797703169378</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2086,19 +2086,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>126.7498226612772</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>33.36619356526521</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>29.3747951519017</v>
+        <v>35.01527374485229</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2326,16 +2326,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>339.530412321721</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>72.97362349455813</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>47.41254713315973</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>157.8102500158722</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>191.0922221582256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2614,7 +2614,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>122.6249555549586</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>163.472338733543</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>127.553294252496</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>297.8304163214463</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2967,7 +2967,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>152.4505929532483</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>110.0923443600226</v>
       </c>
       <c r="G32" t="n">
-        <v>229.7965692041371</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>59.90320919298874</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>128.2775608618781</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>126.7498226612768</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>33.24139751941106</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>69.81472657146874</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>52.23490948285976</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>136.3896895755416</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>57.92518451681239</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>80.50796942908654</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.1760394350281</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>344.0499580396265</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>207.5754705974928</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>105.2362592571642</v>
+        <v>68.74868616823396</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>265.184323424013</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>300.4616965878247</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>81.76432702666735</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>32.26456300666346</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.57401253368338</v>
+        <v>583.2614020227593</v>
       </c>
       <c r="C2" t="n">
-        <v>11.57401253368338</v>
+        <v>583.2614020227593</v>
       </c>
       <c r="D2" t="n">
-        <v>11.57401253368338</v>
+        <v>583.2614020227593</v>
       </c>
       <c r="E2" t="n">
-        <v>11.57401253368338</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="F2" t="n">
-        <v>11.57401253368338</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G2" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H2" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I2" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J2" t="n">
-        <v>11.57401253368338</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>51.79022575657168</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L2" t="n">
-        <v>138.5837562783352</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M2" t="n">
-        <v>266.8277197508551</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>401.7606130061291</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>515.8386566132575</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>578.7006266841692</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q2" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R2" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S2" t="n">
-        <v>449.9835782035085</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T2" t="n">
-        <v>449.9835782035085</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="U2" t="n">
-        <v>449.9835782035085</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="V2" t="n">
-        <v>449.9835782035085</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="W2" t="n">
-        <v>449.9835782035085</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="X2" t="n">
-        <v>303.8470563135668</v>
+        <v>583.2614020227593</v>
       </c>
       <c r="Y2" t="n">
-        <v>157.7105344236251</v>
+        <v>583.2614020227593</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C3" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D3" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E3" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F3" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G3" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H3" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I3" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J3" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K3" t="n">
-        <v>50.41925783498756</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>148.9740250987618</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>283.3396581397943</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>426.5680632441262</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>504.0242257254407</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P3" t="n">
-        <v>578.7006266841692</v>
+        <v>739.5989987017056</v>
       </c>
       <c r="Q3" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R3" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S3" t="n">
-        <v>432.5641047942274</v>
+        <v>598.8192732198752</v>
       </c>
       <c r="T3" t="n">
-        <v>286.4275829042857</v>
+        <v>598.8192732198752</v>
       </c>
       <c r="U3" t="n">
-        <v>286.4275829042857</v>
+        <v>409.3994882033906</v>
       </c>
       <c r="V3" t="n">
-        <v>286.4275829042857</v>
+        <v>219.979703186906</v>
       </c>
       <c r="W3" t="n">
-        <v>140.291061014344</v>
+        <v>30.55991817042144</v>
       </c>
       <c r="X3" t="n">
-        <v>140.291061014344</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="Y3" t="n">
-        <v>140.291061014344</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>578.7006266841692</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C4" t="n">
-        <v>578.7006266841692</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D4" t="n">
-        <v>578.7006266841692</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E4" t="n">
-        <v>461.5872889736106</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F4" t="n">
-        <v>315.4507670836689</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G4" t="n">
-        <v>169.3142451937272</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H4" t="n">
-        <v>169.3142451937272</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I4" t="n">
-        <v>40.22061895147928</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J4" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K4" t="n">
-        <v>41.62866138960607</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L4" t="n">
-        <v>184.8570664939379</v>
+        <v>100.3335179349381</v>
       </c>
       <c r="M4" t="n">
-        <v>328.0854715982698</v>
+        <v>285.9838492295946</v>
       </c>
       <c r="N4" t="n">
-        <v>471.3138767026016</v>
+        <v>471.6341805242512</v>
       </c>
       <c r="O4" t="n">
-        <v>471.3138767026016</v>
+        <v>634.3723839608012</v>
       </c>
       <c r="P4" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Q4" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R4" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S4" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T4" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="U4" t="n">
-        <v>578.7006266841692</v>
+        <v>560.6825636487943</v>
       </c>
       <c r="V4" t="n">
-        <v>578.7006266841692</v>
+        <v>560.6825636487943</v>
       </c>
       <c r="W4" t="n">
-        <v>578.7006266841692</v>
+        <v>371.2627786323097</v>
       </c>
       <c r="X4" t="n">
-        <v>578.7006266841692</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="Y4" t="n">
-        <v>578.7006266841692</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>311.3438087878536</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="C5" t="n">
-        <v>311.3438087878536</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="D5" t="n">
-        <v>311.3438087878536</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E5" t="n">
-        <v>311.3438087878536</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F5" t="n">
-        <v>142.8767111127744</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G5" t="n">
-        <v>142.8767111127744</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H5" t="n">
-        <v>142.8767111127744</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I5" t="n">
-        <v>13.34259413586627</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>13.34259413586628</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>64.08111238184313</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>163.928492730605</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M5" t="n">
-        <v>306.6973793432478</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N5" t="n">
-        <v>456.3902241803914</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O5" t="n">
-        <v>584.4056715233287</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P5" t="n">
-        <v>659.1628932295217</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q5" t="n">
-        <v>667.1297067933136</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R5" t="n">
-        <v>667.1297067933136</v>
+        <v>743.6410113056421</v>
       </c>
       <c r="S5" t="n">
-        <v>505.097793002837</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="T5" t="n">
-        <v>505.097793002837</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="U5" t="n">
-        <v>336.6306953277577</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="V5" t="n">
-        <v>336.6306953277577</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="W5" t="n">
-        <v>336.6306953277577</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="X5" t="n">
-        <v>336.6306953277577</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="Y5" t="n">
-        <v>336.6306953277577</v>
+        <v>204.4218319897905</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132.1366104019075</v>
+        <v>458.313241129427</v>
       </c>
       <c r="C6" t="n">
-        <v>132.1366104019075</v>
+        <v>458.313241129427</v>
       </c>
       <c r="D6" t="n">
-        <v>132.1366104019075</v>
+        <v>458.313241129427</v>
       </c>
       <c r="E6" t="n">
-        <v>132.1366104019075</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F6" t="n">
-        <v>132.1366104019075</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G6" t="n">
-        <v>13.34259413586627</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H6" t="n">
-        <v>13.34259413586627</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I6" t="n">
-        <v>13.34259413586627</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J6" t="n">
-        <v>13.34259413586627</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>59.33472114872545</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L6" t="n">
-        <v>167.499352853669</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M6" t="n">
-        <v>313.0792444295232</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N6" t="n">
-        <v>476.9208474646505</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O6" t="n">
-        <v>584.0017498697407</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P6" t="n">
-        <v>667.1297067933136</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q6" t="n">
-        <v>667.1297067933136</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R6" t="n">
-        <v>637.5379034271451</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S6" t="n">
-        <v>637.5379034271451</v>
+        <v>626.528578149495</v>
       </c>
       <c r="T6" t="n">
-        <v>469.0708057520659</v>
+        <v>626.528578149495</v>
       </c>
       <c r="U6" t="n">
-        <v>300.6037080769867</v>
+        <v>626.528578149495</v>
       </c>
       <c r="V6" t="n">
-        <v>132.1366104019075</v>
+        <v>626.528578149495</v>
       </c>
       <c r="W6" t="n">
-        <v>132.1366104019075</v>
+        <v>626.528578149495</v>
       </c>
       <c r="X6" t="n">
-        <v>132.1366104019075</v>
+        <v>626.528578149495</v>
       </c>
       <c r="Y6" t="n">
-        <v>132.1366104019075</v>
+        <v>626.528578149495</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.8096918109455</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="C7" t="n">
-        <v>181.8096918109455</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="D7" t="n">
-        <v>181.8096918109455</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="E7" t="n">
-        <v>181.8096918109455</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="F7" t="n">
-        <v>181.8096918109455</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="G7" t="n">
-        <v>13.34259413586627</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="H7" t="n">
-        <v>13.34259413586627</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="I7" t="n">
-        <v>13.34259413586627</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J7" t="n">
-        <v>13.34259413586627</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
-        <v>13.55349264790345</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L7" t="n">
-        <v>178.6680950792486</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M7" t="n">
-        <v>343.7826975105937</v>
+        <v>373.5399563830975</v>
       </c>
       <c r="N7" t="n">
-        <v>508.8972999419389</v>
+        <v>559.1902876777543</v>
       </c>
       <c r="O7" t="n">
-        <v>667.1297067933136</v>
+        <v>634.3723839608023</v>
       </c>
       <c r="P7" t="n">
-        <v>667.1297067933136</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q7" t="n">
-        <v>667.1297067933136</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="R7" t="n">
-        <v>667.1297067933136</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="S7" t="n">
-        <v>518.7438871611039</v>
+        <v>557.3057129681429</v>
       </c>
       <c r="T7" t="n">
-        <v>518.7438871611039</v>
+        <v>417.512079941155</v>
       </c>
       <c r="U7" t="n">
-        <v>518.7438871611039</v>
+        <v>417.512079941155</v>
       </c>
       <c r="V7" t="n">
-        <v>518.7438871611039</v>
+        <v>228.0922949246701</v>
       </c>
       <c r="W7" t="n">
-        <v>350.2767894860247</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="X7" t="n">
-        <v>350.2767894860247</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.8096918109455</v>
+        <v>38.67250990818521</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>371.26277863231</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="C8" t="n">
-        <v>204.4218319897903</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="D8" t="n">
-        <v>204.4218319897903</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="E8" t="n">
-        <v>204.4218319897903</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897903</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020258</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652795</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652795</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652795</v>
+        <v>549.2024635036616</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652795</v>
+        <v>549.2024635036616</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652795</v>
+        <v>359.7826784871771</v>
       </c>
       <c r="W8" t="n">
-        <v>750.1023486652795</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="X8" t="n">
-        <v>750.1023486652795</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="Y8" t="n">
-        <v>560.6825636487947</v>
+        <v>204.4218319897901</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C9" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D9" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E9" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F9" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G9" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546597</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017055</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652795</v>
+        <v>722.919292284327</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652795</v>
+        <v>571.6362168389232</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652795</v>
+        <v>571.6362168389232</v>
       </c>
       <c r="U9" t="n">
-        <v>750.1023486652795</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="V9" t="n">
-        <v>560.6825636487947</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="W9" t="n">
-        <v>371.26277863231</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="X9" t="n">
-        <v>181.8429936158252</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="Y9" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>379.034098818555</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C10" t="n">
-        <v>210.0979158906481</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D10" t="n">
-        <v>210.0979158906481</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E10" t="n">
-        <v>210.0979158906481</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F10" t="n">
-        <v>210.0979158906481</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G10" t="n">
-        <v>41.40909245356303</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H10" t="n">
-        <v>41.40909245356303</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L10" t="n">
-        <v>216.063482639416</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M10" t="n">
-        <v>401.7138139340726</v>
+        <v>373.5399563830971</v>
       </c>
       <c r="N10" t="n">
-        <v>587.3641452287293</v>
+        <v>559.1902876777536</v>
       </c>
       <c r="O10" t="n">
-        <v>750.1023486652795</v>
+        <v>721.9284911143037</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Q10" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846266</v>
       </c>
       <c r="R10" t="n">
-        <v>750.1023486652795</v>
+        <v>612.5614882768585</v>
       </c>
       <c r="S10" t="n">
-        <v>750.1023486652795</v>
+        <v>423.141703260374</v>
       </c>
       <c r="T10" t="n">
-        <v>750.1023486652795</v>
+        <v>423.141703260374</v>
       </c>
       <c r="U10" t="n">
-        <v>750.1023486652795</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="V10" t="n">
-        <v>750.1023486652795</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="W10" t="n">
-        <v>750.1023486652795</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="X10" t="n">
-        <v>750.1023486652795</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="Y10" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1621.991392838317</v>
+        <v>1308.370295943749</v>
       </c>
       <c r="C11" t="n">
-        <v>1621.991392838317</v>
+        <v>1308.370295943749</v>
       </c>
       <c r="D11" t="n">
-        <v>1263.725694231566</v>
+        <v>1308.370295943749</v>
       </c>
       <c r="E11" t="n">
-        <v>877.9374416333219</v>
+        <v>922.5820433455044</v>
       </c>
       <c r="F11" t="n">
-        <v>466.9515368437143</v>
+        <v>511.5961385558969</v>
       </c>
       <c r="G11" t="n">
-        <v>51.24678656800311</v>
+        <v>96.52368840089332</v>
       </c>
       <c r="H11" t="n">
-        <v>51.24678656800311</v>
+        <v>96.52368840089332</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362819</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816084</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>795.755353087291</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923561</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230817</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2055.22848474084</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764997</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.25058172385</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400155</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>2562.339328400155</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>2562.339328400155</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2562.339328400155</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2562.339328400155</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W11" t="n">
-        <v>2562.339328400155</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>2398.73056487825</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2008.591232902438</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966389</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155119</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542605</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>448.679247148805</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>302.14468917569</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4432786182524</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057898</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>143.6627691908464</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>590.2049751143493</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>884.9085321458211</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1248.170551105041</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1635.455679701987</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>1967.526114878149</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2214.708848710446</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2538.001278676482</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2562.339328400155</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.617474780096</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.610846175226</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047138</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.368633815395</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087194</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.279776881661</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.519478116707</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C13" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D13" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E13" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312202</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4064713020476</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693235</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>824.219460709659</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1123.088724245823</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999035</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171024</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1636.446120074498</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1636.446120074498</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1439.817372234359</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T13" t="n">
-        <v>1216.838891429094</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U13" t="n">
-        <v>927.720553932932</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>673.0360657270452</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W13" t="n">
-        <v>383.6188956900846</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X13" t="n">
-        <v>155.6293447920672</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y13" t="n">
-        <v>51.24678656800311</v>
+        <v>231.8553933260943</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>728.3028554854573</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C14" t="n">
-        <v>359.3403385450455</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="D14" t="n">
-        <v>359.3403385450455</v>
+        <v>1354.075868958387</v>
       </c>
       <c r="E14" t="n">
-        <v>51.24678656800311</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>51.24678656800311</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>51.24678656800311</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362817</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816081</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872915</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.470313923562</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>1656.671415230817</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2055.22848474084</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.886721764997</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.25058172385</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>2562.339328400155</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>2562.339328400155</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>2562.339328400155</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>2562.339328400155</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V14" t="n">
-        <v>2231.276441056585</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W14" t="n">
-        <v>1878.507785786471</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X14" t="n">
-        <v>1505.042027525391</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y14" t="n">
-        <v>1114.902695549579</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966389</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155119</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542605</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>448.679247148805</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>302.14468917569</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4432786182524</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057915</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>238.4273302370161</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>614.543024838023</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>909.2465818694948</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1272.508600828715</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1659.79372942566</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>1991.864164601822</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2239.046898434119</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.339328400155</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2562.339328400155</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.617474780096</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.610846175226</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047138</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.368633815395</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087194</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.279776881661</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.519478116707</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.683159487371</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C16" t="n">
-        <v>918.7469765594642</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D16" t="n">
-        <v>768.6303371471284</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E16" t="n">
-        <v>620.7172435647353</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F16" t="n">
-        <v>473.8272960668249</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>305.8408313751036</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>157.1019332386098</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312199</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020475</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693234</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>824.2194607096587</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
-        <v>1123.088724245823</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1383.126566999035</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1582.113182171024</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1636.446120074497</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1636.446120074497</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
-        <v>1636.446120074497</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T16" t="n">
-        <v>1636.446120074497</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="U16" t="n">
-        <v>1636.446120074497</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="V16" t="n">
-        <v>1636.446120074497</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W16" t="n">
-        <v>1636.446120074497</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X16" t="n">
-        <v>1490.124203461141</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y16" t="n">
-        <v>1269.331624317611</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1811.579746109089</v>
+        <v>1892.184635123826</v>
       </c>
       <c r="C17" t="n">
-        <v>1561.13247157855</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D17" t="n">
-        <v>1202.866772971799</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E17" t="n">
-        <v>817.078520373555</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F17" t="n">
-        <v>406.0926155839475</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410102</v>
+        <v>2949.481935998591</v>
       </c>
       <c r="V17" t="n">
-        <v>2961.784676410102</v>
+        <v>2618.419048655021</v>
       </c>
       <c r="W17" t="n">
-        <v>2961.784676410102</v>
+        <v>2265.650393384906</v>
       </c>
       <c r="X17" t="n">
-        <v>2588.318918149022</v>
+        <v>1892.184635123826</v>
       </c>
       <c r="Y17" t="n">
-        <v>2198.17958617321</v>
+        <v>1892.184635123826</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,10 +5612,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>644.3338566427969</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C19" t="n">
-        <v>644.3338566427969</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>494.2172172304612</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>494.2172172304612</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>347.3272697325508</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218342</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658018</v>
+        <v>1654.580404287345</v>
       </c>
       <c r="U19" t="n">
-        <v>1416.425065783662</v>
+        <v>1365.477537412989</v>
       </c>
       <c r="V19" t="n">
-        <v>1161.740577577775</v>
+        <v>1365.477537412989</v>
       </c>
       <c r="W19" t="n">
-        <v>872.3234075408143</v>
+        <v>1076.060367376028</v>
       </c>
       <c r="X19" t="n">
-        <v>644.3338566427969</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y19" t="n">
-        <v>644.3338566427969</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796256</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C20" t="n">
-        <v>552.807938939214</v>
+        <v>926.2736972002947</v>
       </c>
       <c r="D20" t="n">
-        <v>194.5422403324635</v>
+        <v>926.2736972002947</v>
       </c>
       <c r="E20" t="n">
-        <v>66.51211643218342</v>
+        <v>926.2736972002947</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218342</v>
+        <v>515.2877924106872</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>100.2153422556837</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5773,7 +5773,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943747</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.3490077683467</v>
+        <v>567.613649430832</v>
       </c>
       <c r="C22" t="n">
-        <v>922.6774975139006</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D22" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E22" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1837.464090846021</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>1582.779602640134</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>1582.779602640134</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.790051742116</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.997472598586</v>
+        <v>749.2621142610717</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1891.353293732296</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C23" t="n">
-        <v>1522.390776791884</v>
+        <v>926.2736972002933</v>
       </c>
       <c r="D23" t="n">
-        <v>1164.125078185134</v>
+        <v>568.0079985935429</v>
       </c>
       <c r="E23" t="n">
-        <v>821.1650657389509</v>
+        <v>182.2197459952986</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X23" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y23" t="n">
-        <v>2277.953133796418</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2440.490738531498</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="C25" t="n">
-        <v>2271.554555603591</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D25" t="n">
-        <v>2121.437916191255</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E25" t="n">
-        <v>1973.524822608862</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F25" t="n">
-        <v>1826.634875110952</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>1658.932038485671</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>1512.714851703528</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.605821609171</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V25" t="n">
-        <v>3070.921333403285</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W25" t="n">
-        <v>3070.921333403285</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X25" t="n">
-        <v>2842.931782505268</v>
+        <v>934.6857300259632</v>
       </c>
       <c r="Y25" t="n">
-        <v>2622.139203361738</v>
+        <v>713.893150882433</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1519.109083729354</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C26" t="n">
-        <v>1150.146566788942</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="D26" t="n">
-        <v>791.8808681821918</v>
+        <v>1060.395265809902</v>
       </c>
       <c r="E26" t="n">
-        <v>406.0926155839475</v>
+        <v>674.6070132116572</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0926155839475</v>
+        <v>674.6070132116572</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>259.5345630566537</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>2755.806928794325</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W26" t="n">
-        <v>2403.038273524211</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X26" t="n">
-        <v>2029.572515263131</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y26" t="n">
-        <v>1905.708923793476</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.613680441807</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="C28" t="n">
-        <v>922.6774975139006</v>
+        <v>676.5553714031489</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>526.4387319908132</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>378.52563840842</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>231.6356909105097</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V28" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.044275313594</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X28" t="n">
-        <v>1494.054724415577</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y28" t="n">
-        <v>1273.262145272047</v>
+        <v>845.4915543310558</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1590.514489367197</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C29" t="n">
-        <v>1221.551972426786</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D29" t="n">
-        <v>863.2862738200351</v>
+        <v>581.1420803965852</v>
       </c>
       <c r="E29" t="n">
-        <v>477.498021221791</v>
+        <v>195.353827798341</v>
       </c>
       <c r="F29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X29" t="n">
-        <v>1977.114329431319</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1977.114329431319</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I30" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6651,22 +6651,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V31" t="n">
-        <v>1914.135768168901</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W31" t="n">
-        <v>1624.71859813194</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X31" t="n">
-        <v>1396.729047233923</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y31" t="n">
-        <v>1175.936468090393</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1822.632236038043</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C32" t="n">
-        <v>1453.669719097631</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D32" t="n">
-        <v>1095.404020490881</v>
+        <v>563.5047572728747</v>
       </c>
       <c r="E32" t="n">
-        <v>709.6157678926365</v>
+        <v>177.7165046746305</v>
       </c>
       <c r="F32" t="n">
-        <v>298.629863103029</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912089</v>
@@ -6706,10 +6706,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>2599.371408077976</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y32" t="n">
-        <v>2209.232076102165</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>463.6594280995014</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="C34" t="n">
-        <v>294.7232451715945</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D34" t="n">
-        <v>294.7232451715945</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E34" t="n">
-        <v>294.7232451715945</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F34" t="n">
-        <v>294.7232451715945</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>127.0204085463135</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>1383.507193008249</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>1094.090022971289</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>866.1004720732712</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="Y34" t="n">
-        <v>645.3078929297411</v>
+        <v>551.0642295677644</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>921.7704558796252</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C35" t="n">
-        <v>552.8079389392135</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D35" t="n">
-        <v>194.542240332463</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E35" t="n">
-        <v>194.542240332463</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F35" t="n">
-        <v>66.5121164321834</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
         <v>66.5121164321834</v>
@@ -6955,7 +6955,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6964,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3292.028652397644</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3038.49817567148</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>2707.435288327909</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180638</v>
+        <v>2354.666633057795</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.509627919559</v>
+        <v>1981.200874796715</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943747</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686063</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>846.071687106474</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>827.0643955080119</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986292</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C37" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D37" t="n">
-        <v>362.8175152271517</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E37" t="n">
-        <v>362.8175152271517</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F37" t="n">
-        <v>362.8175152271517</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
         <v>66.5121164321834</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1238.038871968309</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="C38" t="n">
-        <v>869.0763550278978</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D38" t="n">
-        <v>510.8106564211473</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E38" t="n">
-        <v>125.022403822903</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218343</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218343</v>
@@ -7177,13 +7177,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060172</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V38" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X38" t="n">
-        <v>2014.778044008243</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y38" t="n">
-        <v>1624.638712032431</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1861.970701620181</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C40" t="n">
-        <v>1693.034518692274</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>1611.713337450772</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>1611.713337450772</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952862</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.605821609171</v>
+        <v>1505.196348657667</v>
       </c>
       <c r="U40" t="n">
-        <v>3036.502954734815</v>
+        <v>1505.196348657667</v>
       </c>
       <c r="V40" t="n">
-        <v>2781.818466528928</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="W40" t="n">
-        <v>2492.401296491968</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X40" t="n">
-        <v>2264.41174559395</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y40" t="n">
-        <v>2043.61916645042</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.569348694472</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.606831754061</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D41" t="n">
-        <v>1122.606831754061</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>1122.606831754061</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>711.620926964453</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7423,40 +7423,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V41" t="n">
-        <v>2994.5429342656</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W41" t="n">
-        <v>2641.774278995485</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.308520734406</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.169188758594</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="42">
@@ -7481,28 +7481,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>785.9944709118747</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="C43" t="n">
-        <v>617.0582879839678</v>
+        <v>135.9552337738339</v>
       </c>
       <c r="D43" t="n">
-        <v>466.9416485716321</v>
+        <v>135.9552337738339</v>
       </c>
       <c r="E43" t="n">
-        <v>319.028554989239</v>
+        <v>135.9552337738339</v>
       </c>
       <c r="F43" t="n">
-        <v>319.028554989239</v>
+        <v>135.9552337738339</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W43" t="n">
-        <v>1416.425065783662</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X43" t="n">
-        <v>1188.435514885645</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y43" t="n">
-        <v>967.6429357421144</v>
+        <v>486.5398815319805</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038043</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C44" t="n">
-        <v>1822.632236038043</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>1464.366537431293</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>1078.578284833049</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>667.5923800434412</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339057</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077977</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102165</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="45">
@@ -7718,19 +7718,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2088.986216231253</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C46" t="n">
-        <v>2088.986216231253</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D46" t="n">
-        <v>1938.869576818918</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E46" t="n">
-        <v>1790.956483236524</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>1790.956483236524</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>3103.839206178697</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U46" t="n">
-        <v>2814.736339304341</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V46" t="n">
-        <v>2560.051851098454</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W46" t="n">
-        <v>2270.634681061493</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="X46" t="n">
-        <v>2270.634681061493</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y46" t="n">
-        <v>2270.634681061493</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.091680627731961</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9757828529239987</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>23.23168261818574</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,19 +8139,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>52.55810009140129</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
-        <v>142.8754692792705</v>
+        <v>74.03418926528936</v>
       </c>
       <c r="M4" t="n">
-        <v>139.4864436873943</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>131.6729248303088</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
-        <v>8.508606056834793</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>19.00792621918457</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>18.05838176943913</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L7" t="n">
-        <v>159.4104580922942</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>155.7185244657183</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N7" t="n">
-        <v>148.0447044772794</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O7" t="n">
-        <v>163.0416663658825</v>
+        <v>74.60115408961757</v>
       </c>
       <c r="P7" t="n">
-        <v>22.00204076308472</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265844</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402857</v>
       </c>
       <c r="L10" t="n">
-        <v>98.29368706161254</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
         <v>171.4142040457083</v>
       </c>
       <c r="N10" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>46.56605103777592</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>30.36925650589397</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>193.3273467878353</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.9377812015499</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>238.0586849924383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753917</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2531730278943</v>
+        <v>225.5722460637383</v>
       </c>
       <c r="H2" t="n">
-        <v>318.4846998108122</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>131.4600546760548</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>21.12316271950942</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
-        <v>34.88574083739144</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
-        <v>214.1238810212347</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1816877488572</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>225.0559440074267</v>
+        <v>204.5585635023746</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.5627819850113</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.10330565401333</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2469034849667</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>101.6444647650348</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>51.64041629783932</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>32.07159191921401</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S3" t="n">
-        <v>6.638896330325053</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>51.06944934699766</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8692364442482</v>
+        <v>38.3381812437712</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310554</v>
       </c>
       <c r="W3" t="n">
-        <v>107.0198264898773</v>
+        <v>64.16939599459988</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>190.3706927183328</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22713,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>30.49175831311622</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7458913518889574</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>22.39645861721769</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0531901378539</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.177839155320683</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
-        <v>135.9554396389582</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>207.9945896499623</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0173974919776</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2688822253891</v>
+        <v>98.73949432713056</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027128</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>60.53711821294283</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577507</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>357.6998239889755</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>240.093619043383</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.1696173863946</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>317.6289855973038</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.8745106541563</v>
+        <v>4.968575157639769</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.75811620057</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>84.39257659920884</v>
+        <v>63.64367339871032</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>161.715381551093</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>18.59612117207973</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>101.2126968995411</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>50.10118934773676</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,16 +22913,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>150.483654767777</v>
+        <v>54.34343769746492</v>
       </c>
       <c r="T6" t="n">
-        <v>28.78198192262309</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U6" t="n">
-        <v>59.08386854792602</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>66.01816045109686</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2517084056605086</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>153.7199572267894</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>126.6755586201103</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>25.71029132565417</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.039384816041505</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>134.2701942625523</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>60.43945082091454</v>
+        <v>19.25466862917622</v>
       </c>
       <c r="T7" t="n">
-        <v>223.8572548864558</v>
+        <v>85.32397679338209</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2668378517016</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750799</v>
       </c>
       <c r="W7" t="n">
-        <v>119.7405716382626</v>
+        <v>98.99741117027099</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.80222665376638</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>200.1003545949131</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637382</v>
+        <v>225.5722460637383</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988705</v>
       </c>
       <c r="U8" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038152</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>195.433730685</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23117,10 +23117,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550659</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>49.84711457576893</v>
       </c>
       <c r="V9" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459974</v>
+        <v>64.16939599459988</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715761</v>
+        <v>18.24739803715775</v>
       </c>
       <c r="Y9" t="n">
-        <v>141.3519159519496</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>99.56424474541178</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553087</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917651</v>
       </c>
       <c r="T10" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>257.2579961018921</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271743</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.05906618577492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247044</v>
+        <v>11.86547352390313</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>207.758424791783</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696557</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551288</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>104.7965952039006</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.5575724195736</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.2459207102713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>76.91775361498981</v>
+        <v>219.6477908538052</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247049</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>194.6624603617375</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7486959972119</v>
+        <v>8.930911489229572</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>80.85095794181399</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>117.3300899857741</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>82.55049534404861</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,22 +23892,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>32.7738214059853</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983812</v>
@@ -23940,16 +23940,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.3309722444754</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>255.1805474109846</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>261.2415708220552</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>137.8720259467261</v>
+        <v>132.2315473537755</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>42.39995775054075</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>333.9024222471533</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>48.93987327667836</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>67.89940537316497</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>103.5155422290949</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>263.612983101095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.553469525485212</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>279.3227514892154</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>71.90068435702273</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24891,16 +24891,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>134.0724053833427</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>296.7837013816888</v>
       </c>
       <c r="G32" t="n">
-        <v>181.1251564493163</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>84.85180572133204</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>97.43209452715905</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25162,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>280.1262230804347</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>170.6765726202091</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>78.80074644674362</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>113.7908987761685</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>228.8832021954659</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>348.950861224899</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.10750358912581</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>80.37290984114108</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>66.87176761382699</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>178.6624680585608</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>60.78954900186403</v>
+        <v>97.27712209079426</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>117.5495182394675</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>110.4600290656288</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>84.26148123236088</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>254.2584353299276</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>444013.3802935987</v>
+        <v>479623.1262335381</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>462329.1477348142</v>
+        <v>479623.1262335384</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>479623.1262335382</v>
+        <v>479623.1262335379</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>813588.2900119937</v>
+        <v>895741.6167995789</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813588.2900119936</v>
+        <v>895741.616799579</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895741.6167995789</v>
+        <v>895741.616799579</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895741.6167995791</v>
+        <v>895741.6167995789</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895741.616799579</v>
+        <v>895741.6167995789</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895741.6167995787</v>
+        <v>895741.6167995789</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895741.6167995789</v>
+        <v>895741.6167995788</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>895741.6167995789</v>
+        <v>895741.6167995791</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150291.3350525411</v>
+        <v>162397.4547967401</v>
       </c>
       <c r="C2" t="n">
-        <v>156563.0300299674</v>
+        <v>162397.4547967404</v>
       </c>
       <c r="D2" t="n">
-        <v>162397.4547967403</v>
+        <v>162397.4547967402</v>
       </c>
       <c r="E2" t="n">
-        <v>275374.4674448775</v>
+        <v>306897.3890738287</v>
       </c>
       <c r="F2" t="n">
-        <v>275374.4674448775</v>
+        <v>306897.3890738288</v>
       </c>
       <c r="G2" t="n">
+        <v>306897.3890738286</v>
+      </c>
+      <c r="H2" t="n">
         <v>306897.3890738287</v>
       </c>
-      <c r="H2" t="n">
-        <v>306897.3890738288</v>
-      </c>
       <c r="I2" t="n">
-        <v>306897.3890738288</v>
+        <v>306897.3890738287</v>
       </c>
       <c r="J2" t="n">
         <v>306897.3890738287</v>
@@ -26346,16 +26346,16 @@
         <v>306897.3890738287</v>
       </c>
       <c r="M2" t="n">
-        <v>306897.3890738286</v>
+        <v>306897.3890738287</v>
       </c>
       <c r="N2" t="n">
         <v>306897.3890738287</v>
       </c>
       <c r="O2" t="n">
-        <v>306897.3890738286</v>
+        <v>306897.3890738287</v>
       </c>
       <c r="P2" t="n">
-        <v>306897.3890738286</v>
+        <v>306897.3890738288</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>539761.9848596588</v>
+        <v>591356.9025208451</v>
       </c>
       <c r="C3" t="n">
-        <v>26068.58704069529</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>21735.84085679072</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>445061.6638164773</v>
+        <v>627134.6436336682</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>173363.8810341906</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1.741016149026109e-10</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>37853.38669203818</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
-        <v>5689.703872382486</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5249.907226004455</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>112904.1760744625</v>
+        <v>160456.4418678775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45920.21121431047</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9963.867645347367</v>
+        <v>10637.53658444007</v>
       </c>
       <c r="C4" t="n">
-        <v>10180.57550447572</v>
+        <v>10637.53658444008</v>
       </c>
       <c r="D4" t="n">
         <v>10637.53658444007</v>
       </c>
       <c r="E4" t="n">
-        <v>18583.86599059034</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="F4" t="n">
-        <v>18583.86599059035</v>
+        <v>9770.403102091494</v>
       </c>
       <c r="G4" t="n">
-        <v>9770.40310209149</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="H4" t="n">
         <v>9770.403102091475</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53538.12534878444</v>
+        <v>56985.80041161355</v>
       </c>
       <c r="C5" t="n">
-        <v>55335.34872138573</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984473</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984471</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26490,16 +26490,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="J5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="J5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-452972.6428012495</v>
+        <v>-508086.7481447245</v>
       </c>
       <c r="C6" t="n">
-        <v>64978.51876341068</v>
+        <v>83270.15437612044</v>
       </c>
       <c r="D6" t="n">
-        <v>73038.27694389594</v>
+        <v>83270.15437612092</v>
       </c>
       <c r="E6" t="n">
-        <v>-247581.2348020349</v>
+        <v>-407790.1875213853</v>
       </c>
       <c r="F6" t="n">
-        <v>197480.4290144426</v>
+        <v>219344.4561122833</v>
       </c>
       <c r="G6" t="n">
-        <v>49456.76437615333</v>
+        <v>219344.4561122828</v>
       </c>
       <c r="H6" t="n">
-        <v>222820.6454103438</v>
+        <v>219344.4561122827</v>
       </c>
       <c r="I6" t="n">
-        <v>222820.6454103441</v>
+        <v>219344.4561122829</v>
       </c>
       <c r="J6" t="n">
-        <v>184967.2587183058</v>
+        <v>170279.5113837383</v>
       </c>
       <c r="K6" t="n">
-        <v>217130.9415379615</v>
+        <v>219344.4561122829</v>
       </c>
       <c r="L6" t="n">
-        <v>217570.7381843395</v>
+        <v>219344.4561122829</v>
       </c>
       <c r="M6" t="n">
-        <v>109916.4693358814</v>
+        <v>58888.01424440539</v>
       </c>
       <c r="N6" t="n">
-        <v>222820.6454103439</v>
+        <v>219344.4561122829</v>
       </c>
       <c r="O6" t="n">
-        <v>176900.4341960334</v>
+        <v>219344.4561122829</v>
       </c>
       <c r="P6" t="n">
-        <v>222820.6454103437</v>
+        <v>219344.456112283</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>509.8291662011503</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>530.6136320241912</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175394</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175392</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>166.7824266983284</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000389</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
-        <v>640.5848321000389</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="I4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
@@ -26828,10 +26828,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>509.8291662011503</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>20.78446582304093</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>17.85630888871333</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>385.5949512046349</v>
+        <v>541.3067596803942</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>155.7118084757589</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>22.10727002728612</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>20.74316046799146</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.059244933719</v>
+        <v>643.8758682359733</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>22.10727002728578</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>20.74316046799157</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.0592449337189</v>
+        <v>643.8758682359733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>22.10727002728612</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>20.74316046799146</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.059244933719</v>
+        <v>643.8758682359733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.049564487240804</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>20.99010230495489</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>79.01583489435116</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>173.9542238989543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7122886438576</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>323.4366478202534</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>359.8855902702221</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>365.708915369595</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>345.3285584995942</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>294.7299352208368</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>221.3299070215255</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>128.7459552216403</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>46.70445075299986</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>8.971968542896622</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1639651589792643</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.096613678243984</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>10.59097947146163</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>37.75621655357576</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>103.6059440484809</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>177.0790604908279</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>238.1046497432826</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>277.8568955796269</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>276.0168687543756</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>220.8347924053682</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>209.4051154534499</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>68.08624223342912</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>20.36911810247047</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.42012267678167</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07214563672657791</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9193640701987955</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.17398236958566</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>27.64778494743288</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>64.99903976305484</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>106.8133892467328</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>136.68436367301</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>144.114496931253</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>140.6877763059667</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>129.947932395008</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>111.1929053629525</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.9842040963737</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>41.33795173821129</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>16.02200838700991</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>3.928191936303944</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05014713110175254</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.133120128740466</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>21.8458165184633</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>82.23711376326689</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0459045266863</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K5" t="n">
-        <v>271.3408795762703</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>336.6223547162113</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>374.5572298056996</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>380.6179573714834</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O5" t="n">
-        <v>359.4067440913204</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>306.7453409130401</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q5" t="n">
-        <v>230.3529763025221</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R5" t="n">
-        <v>133.9946072869934</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>48.60847493367341</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.337733363561393</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1706496102992372</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.141319887750147</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>11.02274733695537</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>39.29544350367832</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J6" t="n">
-        <v>107.8297004474821</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>184.298132926742</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>247.8115835222414</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M6" t="n">
-        <v>289.1844294531842</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N6" t="n">
-        <v>296.8382808056841</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O6" t="n">
-        <v>250.7587721263538</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P6" t="n">
-        <v>217.9420406704645</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>70.86194882013636</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S6" t="n">
-        <v>21.19951633606084</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>4.600320073870109</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07508683472040445</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.956844254469853</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H7" t="n">
-        <v>8.507215280650154</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I7" t="n">
-        <v>28.77491630714795</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>67.64888879101861</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1679052011338</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>142.2566448872725</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>149.9896861802152</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>146.4232666862822</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>135.245586077248</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>115.7259632860629</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.12265843565288</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R7" t="n">
-        <v>43.0231971146172</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S7" t="n">
-        <v>16.67518578017007</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.088334541825734</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05219150478926476</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043116</v>
       </c>
       <c r="J8" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622678</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244293</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R8" t="n">
         <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924575</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,46 +31597,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590849</v>
       </c>
       <c r="J9" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L9" t="n">
         <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292672</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628871</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550072</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820367</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390159</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445815</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620012</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>69.9254218111419</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O10" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784856</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647908</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181393</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.0539478630406136</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75503474218106</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336179</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>144.7659768979355</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>318.70387994919</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857144</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767381</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730006</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342226</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166596</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190646</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147052</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235312</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745099</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>16.4376645838976</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.009120711347161</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>19.40387634380021</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436496</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>189.8178475575841</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>324.4289352178439</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177245</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>509.0653662040589</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762073</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405676</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378626</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.4624964168761</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>124.7417227624141</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997903</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000174</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.684379313654579</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>14.97566335231072</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335773</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
-        <v>119.0856174753787</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>195.694251168232</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>250.4212663227908</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>264.0341136849628</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067959</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154673</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>203.7180217169137</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>141.0437987097484</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759588</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523479</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069563</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.755034742181059</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>38.45624955336179</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>144.7659768979354</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>318.70387994919</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857143</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>592.572645076738</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730004</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342224</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166595</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190645</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.5015080147052</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>235.8772011235312</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745098</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>16.4376645838976</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.00912071134716</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>19.40387634380021</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436494</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>189.8178475575841</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>324.4289352178438</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177244</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040588</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762072</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405675</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378625</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.4624964168761</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>124.7417227624141</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997902</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000172</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.684379313654579</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>14.97566335231072</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335771</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>119.0856174753787</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>195.6942511682319</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>250.4212663227908</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>264.0341136849627</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>257.7559726067959</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>238.0793597154673</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>203.7180217169137</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>141.0437987097484</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759585</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>29.35413767523479</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069562</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33517,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>40.62243759887707</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>87.67023285026619</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>129.5393570429493</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>136.2958517730041</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>115.2303470779075</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>63.49693946556727</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>39.23762151646886</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>99.55026996340837</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>135.7228616576086</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>144.6751566710423</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>78.23854796092378</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>75.43070803911962</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>30.35823116759867</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>144.6751566710423</v>
+        <v>86.19340501175002</v>
       </c>
       <c r="M4" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="N4" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P4" t="n">
-        <v>108.4714646278459</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K5" t="n">
-        <v>51.25102853128971</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L5" t="n">
-        <v>100.8559397462241</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M5" t="n">
-        <v>144.2109965784269</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N5" t="n">
-        <v>151.2048937748925</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O5" t="n">
-        <v>129.3085326696337</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P5" t="n">
-        <v>75.5123451577706</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.047286428072653</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>46.45669395238301</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L6" t="n">
-        <v>109.2572037423672</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M6" t="n">
-        <v>147.0503955311659</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N6" t="n">
-        <v>165.4965687223508</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>108.1625276819093</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P6" t="n">
-        <v>83.96763325613429</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2130288000375565</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>166.7824266983284</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M7" t="n">
-        <v>166.7824266983284</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N7" t="n">
-        <v>166.7824266983284</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O7" t="n">
-        <v>159.8307139912877</v>
+        <v>75.94151139701812</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867967</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788321</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915973</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065964</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781461</v>
       </c>
       <c r="L9" t="n">
         <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755145</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855685</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.6094444076499</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>110.4529028080733</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M10" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="N10" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="O10" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>28.45844197068201</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225037</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407339</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067509</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457279</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376316</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949728</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>308.7456939637951</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402557</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>20.2916633093991</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>93.34947739681142</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>451.0527332560635</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378503</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820406</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>391.197099592874</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>335.4246819961231</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>249.6795291235323</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>326.5580100667037</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870597</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
-        <v>173.4247593423491</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>278.011291583107</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>303.6179906468034</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860245</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>262.664487629507</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>200.9965809818072</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.88175545805406</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6579754225037</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407337</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067508</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457277</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376315</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949727</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>308.745693963795</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.1958181402557</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939904</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>189.0712562313263</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>379.9148430313201</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>297.6803606378502</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820405</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>391.1970995928739</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>335.424681996123</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>249.6795291235323</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>326.5580100667037</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870594</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>173.4247593423491</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>278.0112915831069</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>303.6179906468033</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>301.8881449860245</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>262.6644876295069</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>200.9965809818072</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805403</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
